--- a/Supplementary_Tables/Supplementary Table S4.xlsx
+++ b/Supplementary_Tables/Supplementary Table S4.xlsx
@@ -1,16 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10313"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{464EACD7-1809-B64A-B3F8-0BC47A44861F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30720" windowHeight="9228" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="S1.1" sheetId="5" r:id="rId1"/>
-    <sheet name="S1.2" sheetId="4" r:id="rId2"/>
-    <sheet name="S1.3" sheetId="2" r:id="rId3"/>
-    <sheet name="S1.4" sheetId="3" r:id="rId4"/>
+    <sheet name="S4.1" sheetId="5" r:id="rId1"/>
+    <sheet name="S4.2" sheetId="4" r:id="rId2"/>
+    <sheet name="S4.3" sheetId="2" r:id="rId3"/>
+    <sheet name="S4.4" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -390,7 +391,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -708,36 +709,36 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G114"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="43.21875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.77734375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="43.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="18.33203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="16.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5" style="1" customWidth="1"/>
     <col min="6" max="6" width="36.6640625" style="1" customWidth="1"/>
     <col min="7" max="7" width="31.33203125" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>110</v>
       </c>
@@ -760,7 +761,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>96</v>
       </c>
@@ -783,7 +784,7 @@
         <v>0.79999999999999905</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>105</v>
       </c>
@@ -806,7 +807,7 @@
         <v>0.17117422998135701</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -829,7 +830,7 @@
         <v>0.54285714285714204</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>63</v>
       </c>
@@ -852,7 +853,7 @@
         <v>0.16005726111465399</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>76</v>
       </c>
@@ -875,7 +876,7 @@
         <v>0.29866266019411902</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>106</v>
       </c>
@@ -898,7 +899,7 @@
         <v>0.47268024657563301</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>48</v>
       </c>
@@ -921,7 +922,7 @@
         <v>0.37598582630131999</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>81</v>
       </c>
@@ -944,7 +945,7 @@
         <v>0.41232074798004698</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>92</v>
       </c>
@@ -967,7 +968,7 @@
         <v>0.34475713470043901</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>53</v>
       </c>
@@ -990,7 +991,7 @@
         <v>-0.19642857142857101</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>36</v>
       </c>
@@ -1013,7 +1014,7 @@
         <v>0.22239755210522</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>45</v>
       </c>
@@ -1036,7 +1037,7 @@
         <v>0.55473948514059801</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>61</v>
       </c>
@@ -1059,7 +1060,7 @@
         <v>0.37050874279065199</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>93</v>
       </c>
@@ -1082,7 +1083,7 @@
         <v>0.27783077740957302</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>35</v>
       </c>
@@ -1105,7 +1106,7 @@
         <v>0.53983187527547205</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>67</v>
       </c>
@@ -1128,7 +1129,7 @@
         <v>0.39999999999999902</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>94</v>
       </c>
@@ -1151,7 +1152,7 @@
         <v>0.62313203537821704</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>107</v>
       </c>
@@ -1174,7 +1175,7 @@
         <v>0.422512109581482</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>33</v>
       </c>
@@ -1197,7 +1198,7 @@
         <v>0.64564889061555897</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>109</v>
       </c>
@@ -1220,7 +1221,7 @@
         <v>0.39051009135833198</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>83</v>
       </c>
@@ -1243,7 +1244,7 @@
         <v>0.35622043919436502</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>15</v>
       </c>
@@ -1266,7 +1267,7 @@
         <v>0.62237762237762195</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>60</v>
       </c>
@@ -1289,7 +1290,7 @@
         <v>0.18588952146342599</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>79</v>
       </c>
@@ -1312,7 +1313,7 @@
         <v>0.42665312022596702</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>108</v>
       </c>
@@ -1335,7 +1336,7 @@
         <v>0.31670744562546399</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>50</v>
       </c>
@@ -1358,7 +1359,7 @@
         <v>0.380250095316509</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>39</v>
       </c>
@@ -1381,7 +1382,7 @@
         <v>0.32514592118312402</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>80</v>
       </c>
@@ -1404,7 +1405,7 @@
         <v>0.27963655009282901</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>91</v>
       </c>
@@ -1427,7 +1428,7 @@
         <v>0.66688592885535003</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>18</v>
       </c>
@@ -1450,7 +1451,7 @@
         <v>0.420666878869625</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>37</v>
       </c>
@@ -1467,7 +1468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>5</v>
       </c>
@@ -1490,7 +1491,7 @@
         <v>0.31909681083377001</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>1</v>
       </c>
@@ -1513,7 +1514,7 @@
         <v>0.20423041640915901</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>8</v>
       </c>
@@ -1536,7 +1537,7 @@
         <v>0.49041865788038802</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>43</v>
       </c>
@@ -1559,7 +1560,7 @@
         <v>0.35883245083970999</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>2</v>
       </c>
@@ -1582,7 +1583,7 @@
         <v>0.77272727272727204</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>100</v>
       </c>
@@ -1605,7 +1606,7 @@
         <v>-0.999999999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>89</v>
       </c>
@@ -1628,7 +1629,7 @@
         <v>0.278954771106591</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>86</v>
       </c>
@@ -1651,7 +1652,7 @@
         <v>0.40959684656321099</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>102</v>
       </c>
@@ -1674,7 +1675,7 @@
         <v>0.27804097119214299</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>103</v>
       </c>
@@ -1697,7 +1698,7 @@
         <v>0.83216783216783197</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>54</v>
       </c>
@@ -1720,7 +1721,7 @@
         <v>0.38040529224949499</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>22</v>
       </c>
@@ -1743,7 +1744,7 @@
         <v>0.53571428571428503</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>19</v>
       </c>
@@ -1766,7 +1767,7 @@
         <v>0.46975906174591803</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>30</v>
       </c>
@@ -1789,7 +1790,7 @@
         <v>0.52100846701495496</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>42</v>
       </c>
@@ -1812,7 +1813,7 @@
         <v>0.33843189150892</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>64</v>
       </c>
@@ -1835,7 +1836,7 @@
         <v>0.47171223270207002</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>51</v>
       </c>
@@ -1858,7 +1859,7 @@
         <v>0.33263950126521302</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>56</v>
       </c>
@@ -1881,7 +1882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>12</v>
       </c>
@@ -1904,7 +1905,7 @@
         <v>0.34459121030047701</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>3</v>
       </c>
@@ -1927,7 +1928,7 @@
         <v>0.171989239356514</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>82</v>
       </c>
@@ -1950,7 +1951,7 @@
         <v>8.1018334696657701E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>38</v>
       </c>
@@ -1973,7 +1974,7 @@
         <v>0.15237115073721699</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>77</v>
       </c>
@@ -1996,7 +1997,7 @@
         <v>0.13670370935308199</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>14</v>
       </c>
@@ -2019,7 +2020,7 @@
         <v>6.4300806835570004E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>17</v>
       </c>
@@ -2042,7 +2043,7 @@
         <v>0.372243706297049</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>34</v>
       </c>
@@ -2065,7 +2066,7 @@
         <v>0.33670813118058301</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>66</v>
       </c>
@@ -2088,7 +2089,7 @@
         <v>0.37724224260493799</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>95</v>
       </c>
@@ -2111,7 +2112,7 @@
         <v>0.371428571428571</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>57</v>
       </c>
@@ -2134,7 +2135,7 @@
         <v>0.44264019852143299</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>73</v>
       </c>
@@ -2157,7 +2158,7 @@
         <v>0.27272727272727199</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>46</v>
       </c>
@@ -2180,7 +2181,7 @@
         <v>0.61904761904761896</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>23</v>
       </c>
@@ -2203,7 +2204,7 @@
         <v>0.430891209210915</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>84</v>
       </c>
@@ -2226,7 +2227,7 @@
         <v>0.35431773171942099</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>10</v>
       </c>
@@ -2249,7 +2250,7 @@
         <v>0.36580276191678202</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>25</v>
       </c>
@@ -2272,7 +2273,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>68</v>
       </c>
@@ -2295,7 +2296,7 @@
         <v>-0.40109890109890101</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>69</v>
       </c>
@@ -2318,7 +2319,7 @@
         <v>0.33343478779344898</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>26</v>
       </c>
@@ -2341,7 +2342,7 @@
         <v>0.58577953113405801</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>72</v>
       </c>
@@ -2364,7 +2365,7 @@
         <v>0.34925417070064602</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>62</v>
       </c>
@@ -2387,7 +2388,7 @@
         <v>0.47878787878787799</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>97</v>
       </c>
@@ -2410,7 +2411,7 @@
         <v>0.306426314664343</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>74</v>
       </c>
@@ -2433,7 +2434,7 @@
         <v>0.229498184243241</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>65</v>
       </c>
@@ -2456,7 +2457,7 @@
         <v>0.44410036577954798</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>55</v>
       </c>
@@ -2479,7 +2480,7 @@
         <v>0.48996927058937001</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>85</v>
       </c>
@@ -2502,7 +2503,7 @@
         <v>0.42381580124188101</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>44</v>
       </c>
@@ -2525,7 +2526,7 @@
         <v>0.32272285361147901</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>58</v>
       </c>
@@ -2548,7 +2549,7 @@
         <v>0.30061372322167601</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>4</v>
       </c>
@@ -2571,7 +2572,7 @@
         <v>-0.12484304624157801</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>75</v>
       </c>
@@ -2594,7 +2595,7 @@
         <v>0.34786673086773701</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>70</v>
       </c>
@@ -2617,7 +2618,7 @@
         <v>0.30755197302522402</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>41</v>
       </c>
@@ -2640,7 +2641,7 @@
         <v>0.447787092309618</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>101</v>
       </c>
@@ -2663,7 +2664,7 @@
         <v>0.39922558138243802</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>104</v>
       </c>
@@ -2686,7 +2687,7 @@
         <v>0.22424242424242399</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>28</v>
       </c>
@@ -2709,7 +2710,7 @@
         <v>0.53737012604471002</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>20</v>
       </c>
@@ -2732,7 +2733,7 @@
         <v>0.10584704073568001</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>27</v>
       </c>
@@ -2755,7 +2756,7 @@
         <v>0.432075415799833</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>47</v>
       </c>
@@ -2778,7 +2779,7 @@
         <v>0.51480430950211298</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>40</v>
       </c>
@@ -2801,7 +2802,7 @@
         <v>0.195581567454889</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>98</v>
       </c>
@@ -2824,7 +2825,7 @@
         <v>0.43944642047086802</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>59</v>
       </c>
@@ -2847,7 +2848,7 @@
         <v>0.37457310546322498</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>7</v>
       </c>
@@ -2870,7 +2871,7 @@
         <v>0.46911881702899</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>99</v>
       </c>
@@ -2893,7 +2894,7 @@
         <v>0.180843129963628</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>90</v>
       </c>
@@ -2916,7 +2917,7 @@
         <v>0.35257620002225598</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>31</v>
       </c>
@@ -2939,7 +2940,7 @@
         <v>0.15454545454545399</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>29</v>
       </c>
@@ -2962,7 +2963,7 @@
         <v>0.201360257671055</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>6</v>
       </c>
@@ -2985,7 +2986,7 @@
         <v>0.46533354062718102</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>52</v>
       </c>
@@ -3008,7 +3009,7 @@
         <v>0.999999999999999</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>71</v>
       </c>
@@ -3031,7 +3032,7 @@
         <v>0.311382828097447</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>32</v>
       </c>
@@ -3054,7 +3055,7 @@
         <v>0.71428571428571397</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>49</v>
       </c>
@@ -3077,7 +3078,7 @@
         <v>0.46951933668557599</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>88</v>
       </c>
@@ -3100,7 +3101,7 @@
         <v>0.175671317400447</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>9</v>
       </c>
@@ -3123,12 +3124,12 @@
         <v>0.61764705882352899</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>13</v>
       </c>
@@ -3151,7 +3152,7 @@
         <v>0.36362344400723001</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>78</v>
       </c>
@@ -3174,7 +3175,7 @@
         <v>0.57939131141634204</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>16</v>
       </c>
@@ -3197,7 +3198,7 @@
         <v>0.375441365924362</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>11</v>
       </c>
@@ -3220,7 +3221,7 @@
         <v>0.46552040588461902</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>87</v>
       </c>
@@ -3243,7 +3244,7 @@
         <v>0.318658472701773</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>21</v>
       </c>
@@ -3272,40 +3273,40 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H115"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="28.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.21875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.1640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="12" style="1" customWidth="1"/>
     <col min="5" max="5" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="30.44140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="30.5" style="1" customWidth="1"/>
     <col min="7" max="7" width="32" style="1" customWidth="1"/>
     <col min="8" max="8" width="23.6640625" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>110</v>
       </c>
@@ -3328,17 +3329,17 @@
         <v>119</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>24</v>
       </c>
@@ -3361,7 +3362,7 @@
         <v>0.94868329805051299</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>63</v>
       </c>
@@ -3384,12 +3385,12 @@
         <v>0.77142857142857102</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>106</v>
       </c>
@@ -3406,32 +3407,32 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>45</v>
       </c>
@@ -3454,17 +3455,17 @@
         <v>0.86307796940207904</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>35</v>
       </c>
@@ -3487,7 +3488,7 @@
         <v>0.91624805020828803</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>67</v>
       </c>
@@ -3504,7 +3505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>94</v>
       </c>
@@ -3527,7 +3528,7 @@
         <v>0.77459666924148296</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>107</v>
       </c>
@@ -3544,7 +3545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>33</v>
       </c>
@@ -3567,7 +3568,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>109</v>
       </c>
@@ -3590,7 +3591,7 @@
         <v>0.34080649022616799</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>83</v>
       </c>
@@ -3613,7 +3614,7 @@
         <v>0.64244882123148905</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>15</v>
       </c>
@@ -3630,17 +3631,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>108</v>
       </c>
@@ -3663,12 +3664,12 @@
         <v>0.185730430885826</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>39</v>
       </c>
@@ -3691,7 +3692,7 @@
         <v>0.76315789473684204</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>80</v>
       </c>
@@ -3714,7 +3715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>91</v>
       </c>
@@ -3731,12 +3732,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>37</v>
       </c>
@@ -3753,7 +3754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>5</v>
       </c>
@@ -3776,7 +3777,7 @@
         <v>0.32754903520541101</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>1</v>
       </c>
@@ -3799,22 +3800,22 @@
         <v>0.95773407381352205</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>100</v>
       </c>
@@ -3837,7 +3838,7 @@
         <v>0.97054189345518005</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>89</v>
       </c>
@@ -3860,17 +3861,17 @@
         <v>0.37368857491095903</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>103</v>
       </c>
@@ -3893,7 +3894,7 @@
         <v>0.999999999999999</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>54</v>
       </c>
@@ -3916,22 +3917,22 @@
         <v>0.26105838416988802</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>42</v>
       </c>
@@ -3954,12 +3955,12 @@
         <v>0.26197426686560898</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>51</v>
       </c>
@@ -3982,7 +3983,7 @@
         <v>0.46115529904171099</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>56</v>
       </c>
@@ -3999,7 +4000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>12</v>
       </c>
@@ -4022,7 +4023,7 @@
         <v>0.38095238095238099</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>3</v>
       </c>
@@ -4045,17 +4046,17 @@
         <v>0.999999999999999</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>77</v>
       </c>
@@ -4078,17 +4079,17 @@
         <v>0.26202623565108402</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>34</v>
       </c>
@@ -4111,12 +4112,12 @@
         <v>0.31239494046917599</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>95</v>
       </c>
@@ -4133,7 +4134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4156,17 +4157,17 @@
         <v>0.59386447722272995</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>23</v>
       </c>
@@ -4189,7 +4190,7 @@
         <v>0.55192905583509499</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>84</v>
       </c>
@@ -4212,12 +4213,12 @@
         <v>0.38841259241805398</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>25</v>
       </c>
@@ -4240,7 +4241,7 @@
         <v>0.77459666924148296</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>68</v>
       </c>
@@ -4257,7 +4258,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>69</v>
       </c>
@@ -4280,37 +4281,37 @@
         <v>0.58241758241758201</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>55</v>
       </c>
@@ -4333,7 +4334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>85</v>
       </c>
@@ -4356,7 +4357,7 @@
         <v>0.32533184014059502</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>44</v>
       </c>
@@ -4379,7 +4380,7 @@
         <v>0.82522931742263095</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>58</v>
       </c>
@@ -4396,17 +4397,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>70</v>
       </c>
@@ -4429,17 +4430,17 @@
         <v>0.999999999999999</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>104</v>
       </c>
@@ -4456,12 +4457,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>20</v>
       </c>
@@ -4484,17 +4485,17 @@
         <v>0.999999999999999</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>40</v>
       </c>
@@ -4517,17 +4518,17 @@
         <v>0.371428571428571</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>7</v>
       </c>
@@ -4550,12 +4551,12 @@
         <v>0.43539913515357498</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>90</v>
       </c>
@@ -4578,12 +4579,12 @@
         <v>0.47708107351434298</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>29</v>
       </c>
@@ -4606,12 +4607,12 @@
         <v>0.74361866000343002</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>52</v>
       </c>
@@ -4628,7 +4629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>71</v>
       </c>
@@ -4651,7 +4652,7 @@
         <v>0.39825863491959901</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>32</v>
       </c>
@@ -4674,12 +4675,12 @@
         <v>0.86602540378443804</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>88</v>
       </c>
@@ -4702,7 +4703,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>9</v>
       </c>
@@ -4719,7 +4720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>120</v>
       </c>
@@ -4742,12 +4743,12 @@
         <v>0.28571428571428498</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>78</v>
       </c>
@@ -4770,7 +4771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>16</v>
       </c>
@@ -4793,7 +4794,7 @@
         <v>0.41406113323643601</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>11</v>
       </c>
@@ -4816,13 +4817,13 @@
         <v>0.999999999999999</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>87</v>
       </c>
       <c r="H114"/>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>21</v>
       </c>
@@ -4851,40 +4852,40 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G114"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="28.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="15.21875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="15.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.1640625" style="1" customWidth="1"/>
     <col min="4" max="5" width="12" style="1" customWidth="1"/>
-    <col min="6" max="6" width="30.44140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="30.5" style="1" customWidth="1"/>
     <col min="7" max="7" width="32" style="1" customWidth="1"/>
     <col min="8" max="12" width="9" style="1"/>
     <col min="13" max="13" width="24" style="1" customWidth="1"/>
-    <col min="14" max="14" width="24.88671875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="24.83203125" style="1" customWidth="1"/>
     <col min="15" max="15" width="9" style="1"/>
     <col min="16" max="16" width="22.6640625" style="1" customWidth="1"/>
     <col min="17" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>110</v>
       </c>
@@ -4907,7 +4908,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>96</v>
       </c>
@@ -4930,7 +4931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>105</v>
       </c>
@@ -4953,7 +4954,7 @@
         <v>0.32781523556952602</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -4976,7 +4977,7 @@
         <v>0.42857142857142799</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>63</v>
       </c>
@@ -4999,7 +5000,7 @@
         <v>0.34480007919373801</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>76</v>
       </c>
@@ -5022,7 +5023,7 @@
         <v>0.483215350950917</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>106</v>
       </c>
@@ -5045,7 +5046,7 @@
         <v>0.563279057831509</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>48</v>
       </c>
@@ -5068,7 +5069,7 @@
         <v>0.42305387072019301</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>81</v>
       </c>
@@ -5091,7 +5092,7 @@
         <v>0.492986009583194</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>92</v>
       </c>
@@ -5114,7 +5115,7 @@
         <v>0.44579465505186999</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>53</v>
       </c>
@@ -5137,7 +5138,7 @@
         <v>-0.128571428571428</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>36</v>
       </c>
@@ -5160,7 +5161,7 @@
         <v>0.61866201236854601</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>45</v>
       </c>
@@ -5183,7 +5184,7 @@
         <v>0.642704569126758</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>61</v>
       </c>
@@ -5206,7 +5207,7 @@
         <v>0.39963403134832898</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>93</v>
       </c>
@@ -5229,7 +5230,7 @@
         <v>0.37553882368854102</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>35</v>
       </c>
@@ -5252,7 +5253,7 @@
         <v>0.56334916397304402</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>67</v>
       </c>
@@ -5275,7 +5276,7 @@
         <v>0.39999999999999902</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>94</v>
       </c>
@@ -5298,7 +5299,7 @@
         <v>0.58414567237227999</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>107</v>
       </c>
@@ -5321,7 +5322,7 @@
         <v>0.61109972078828401</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>33</v>
       </c>
@@ -5344,7 +5345,7 @@
         <v>0.64680391070036003</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>109</v>
       </c>
@@ -5367,7 +5368,7 @@
         <v>0.50779734893352702</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>83</v>
       </c>
@@ -5390,7 +5391,7 @@
         <v>0.36425857021924402</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>15</v>
       </c>
@@ -5413,7 +5414,7 @@
         <v>0.56643356643356602</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>60</v>
       </c>
@@ -5436,7 +5437,7 @@
         <v>0.177607641100618</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>79</v>
       </c>
@@ -5459,7 +5460,7 @@
         <v>0.558884595743942</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>108</v>
       </c>
@@ -5482,7 +5483,7 @@
         <v>0.38472711907533202</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>50</v>
       </c>
@@ -5505,7 +5506,7 @@
         <v>0.50568887963620002</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>39</v>
       </c>
@@ -5528,7 +5529,7 @@
         <v>0.44690665636042098</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>80</v>
       </c>
@@ -5551,7 +5552,7 @@
         <v>3.03952771840032E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>91</v>
       </c>
@@ -5574,7 +5575,7 @@
         <v>0.56428809364683397</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>18</v>
       </c>
@@ -5597,7 +5598,7 @@
         <v>0.36927114908321501</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>37</v>
       </c>
@@ -5614,7 +5615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>5</v>
       </c>
@@ -5637,7 +5638,7 @@
         <v>0.35881521402132399</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>1</v>
       </c>
@@ -5660,7 +5661,7 @@
         <v>0.46480025803463898</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>8</v>
       </c>
@@ -5683,7 +5684,7 @@
         <v>0.443756181807133</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>43</v>
       </c>
@@ -5706,7 +5707,7 @@
         <v>0.49278514502941401</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>2</v>
       </c>
@@ -5729,7 +5730,7 @@
         <v>0.86363636363636298</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>100</v>
       </c>
@@ -5752,7 +5753,7 @@
         <v>-0.999999999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>89</v>
       </c>
@@ -5775,7 +5776,7 @@
         <v>0.29468815974138901</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>86</v>
       </c>
@@ -5798,7 +5799,7 @@
         <v>0.55750681893326004</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>102</v>
       </c>
@@ -5821,7 +5822,7 @@
         <v>0.37421829596082001</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>103</v>
       </c>
@@ -5844,7 +5845,7 @@
         <v>0.57342657342657299</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>54</v>
       </c>
@@ -5867,7 +5868,7 @@
         <v>0.59460793874684803</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>22</v>
       </c>
@@ -5890,7 +5891,7 @@
         <v>3.5714285714285698E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>19</v>
       </c>
@@ -5913,7 +5914,7 @@
         <v>0.51627852572819899</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>30</v>
       </c>
@@ -5936,7 +5937,7 @@
         <v>0.49530406446772801</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>42</v>
       </c>
@@ -5959,7 +5960,7 @@
         <v>0.47431013625713198</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>64</v>
       </c>
@@ -5982,7 +5983,7 @@
         <v>0.55971175018681396</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>51</v>
       </c>
@@ -6005,7 +6006,7 @@
         <v>0.50389591660492505</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>56</v>
       </c>
@@ -6028,7 +6029,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>12</v>
       </c>
@@ -6051,7 +6052,7 @@
         <v>0.53937469404625904</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>3</v>
       </c>
@@ -6074,7 +6075,7 @@
         <v>0.25317431654717298</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>82</v>
       </c>
@@ -6097,7 +6098,7 @@
         <v>2.0204073490438301E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>38</v>
       </c>
@@ -6120,7 +6121,7 @@
         <v>0.27092863855126398</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>77</v>
       </c>
@@ -6143,7 +6144,7 @@
         <v>0.26893275132782102</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>14</v>
       </c>
@@ -6166,7 +6167,7 @@
         <v>0.26090088389667798</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>17</v>
       </c>
@@ -6189,7 +6190,7 @@
         <v>0.50221232156242102</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>34</v>
       </c>
@@ -6212,7 +6213,7 @@
         <v>0.40328934035411301</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>66</v>
       </c>
@@ -6235,7 +6236,7 @@
         <v>0.42243056711361998</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>95</v>
       </c>
@@ -6258,7 +6259,7 @@
         <v>0.371428571428571</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>57</v>
       </c>
@@ -6281,7 +6282,7 @@
         <v>0.24212673460471601</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>73</v>
       </c>
@@ -6304,7 +6305,7 @@
         <v>0.16083916083916</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>46</v>
       </c>
@@ -6327,7 +6328,7 @@
         <v>0.238095238095238</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>23</v>
       </c>
@@ -6350,7 +6351,7 @@
         <v>0.55320102632894097</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>84</v>
       </c>
@@ -6373,7 +6374,7 @@
         <v>0.38145384338905403</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>10</v>
       </c>
@@ -6396,7 +6397,7 @@
         <v>0.47803146473511199</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>25</v>
       </c>
@@ -6419,7 +6420,7 @@
         <v>0.77142857142857102</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>68</v>
       </c>
@@ -6442,7 +6443,7 @@
         <v>-0.29670329670329598</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>69</v>
       </c>
@@ -6465,7 +6466,7 @@
         <v>0.418729862404635</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>26</v>
       </c>
@@ -6488,7 +6489,7 @@
         <v>0.64709721033962697</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>72</v>
       </c>
@@ -6511,7 +6512,7 @@
         <v>0.39239559828492898</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>62</v>
       </c>
@@ -6534,7 +6535,7 @@
         <v>0.35757575757575699</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>97</v>
       </c>
@@ -6557,7 +6558,7 @@
         <v>0.30296005828358902</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>74</v>
       </c>
@@ -6580,7 +6581,7 @@
         <v>0.32358215586288103</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>65</v>
       </c>
@@ -6603,7 +6604,7 @@
         <v>0.53783355525930499</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>55</v>
       </c>
@@ -6626,7 +6627,7 @@
         <v>0.72635477243902402</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>85</v>
       </c>
@@ -6649,7 +6650,7 @@
         <v>0.53929215287638299</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>44</v>
       </c>
@@ -6672,7 +6673,7 @@
         <v>0.45671168427077702</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>58</v>
       </c>
@@ -6695,7 +6696,7 @@
         <v>0.49570589461860098</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>4</v>
       </c>
@@ -6718,7 +6719,7 @@
         <v>1.7938092487981599E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>75</v>
       </c>
@@ -6741,7 +6742,7 @@
         <v>0.49669622225258098</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>70</v>
       </c>
@@ -6764,7 +6765,7 @@
         <v>0.53550338856124702</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>41</v>
       </c>
@@ -6787,7 +6788,7 @@
         <v>0.441274725063874</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>101</v>
       </c>
@@ -6810,7 +6811,7 @@
         <v>0.47578549063050102</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>104</v>
       </c>
@@ -6833,7 +6834,7 @@
         <v>0.33333333333333298</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>28</v>
       </c>
@@ -6856,7 +6857,7 @@
         <v>0.64543620221027898</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>20</v>
       </c>
@@ -6879,7 +6880,7 @@
         <v>0.30563092887562199</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>27</v>
       </c>
@@ -6902,7 +6903,7 @@
         <v>0.37747896448048301</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>47</v>
       </c>
@@ -6925,7 +6926,7 @@
         <v>0.54285454431472802</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>40</v>
       </c>
@@ -6948,7 +6949,7 @@
         <v>0.27928739121106799</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>98</v>
       </c>
@@ -6971,7 +6972,7 @@
         <v>0.42263969572845</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>59</v>
       </c>
@@ -6994,7 +6995,7 @@
         <v>0.52587439503164302</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>7</v>
       </c>
@@ -7017,7 +7018,7 @@
         <v>0.37019070750060901</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>99</v>
       </c>
@@ -7040,7 +7041,7 @@
         <v>0.52511038606830196</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>90</v>
       </c>
@@ -7063,7 +7064,7 @@
         <v>0.32106254869272099</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>31</v>
       </c>
@@ -7086,7 +7087,7 @@
         <v>0.13636363636363599</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>29</v>
       </c>
@@ -7109,7 +7110,7 @@
         <v>0.27078267762414898</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>6</v>
       </c>
@@ -7132,7 +7133,7 @@
         <v>0.65075665393662996</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>52</v>
       </c>
@@ -7155,7 +7156,7 @@
         <v>0.999999999999999</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>71</v>
       </c>
@@ -7178,7 +7179,7 @@
         <v>0.39521666643137499</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>32</v>
       </c>
@@ -7201,7 +7202,7 @@
         <v>0.94285714285714295</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>49</v>
       </c>
@@ -7224,7 +7225,7 @@
         <v>0.47087492480415899</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>88</v>
       </c>
@@ -7247,7 +7248,7 @@
         <v>0.42504636861040102</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>9</v>
       </c>
@@ -7270,12 +7271,12 @@
         <v>0.60049019607843102</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>13</v>
       </c>
@@ -7298,7 +7299,7 @@
         <v>0.50030263715148005</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>78</v>
       </c>
@@ -7321,7 +7322,7 @@
         <v>0.39292265201431098</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>16</v>
       </c>
@@ -7344,7 +7345,7 @@
         <v>0.45760555760296601</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>11</v>
       </c>
@@ -7367,7 +7368,7 @@
         <v>0.50328512909618905</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>87</v>
       </c>
@@ -7390,7 +7391,7 @@
         <v>0.34736199667178103</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>21</v>
       </c>
@@ -7419,37 +7420,37 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G116" sqref="G116"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="28.6640625" customWidth="1"/>
-    <col min="2" max="2" width="15.21875" customWidth="1"/>
-    <col min="3" max="3" width="19.109375" customWidth="1"/>
+    <col min="2" max="2" width="15.1640625" customWidth="1"/>
+    <col min="3" max="3" width="19.1640625" customWidth="1"/>
     <col min="4" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="30.44140625" customWidth="1"/>
+    <col min="6" max="6" width="30.5" customWidth="1"/>
     <col min="7" max="7" width="32" customWidth="1"/>
     <col min="8" max="8" width="34" customWidth="1"/>
-    <col min="9" max="9" width="9.88671875" customWidth="1"/>
-    <col min="10" max="10" width="10.77734375" customWidth="1"/>
+    <col min="9" max="9" width="9.83203125" customWidth="1"/>
+    <col min="10" max="10" width="10.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>110</v>
       </c>
@@ -7472,7 +7473,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>96</v>
       </c>
@@ -7483,7 +7484,7 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>105</v>
       </c>
@@ -7494,7 +7495,7 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -7517,7 +7518,7 @@
         <v>0.94868329805051299</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>63</v>
       </c>
@@ -7540,7 +7541,7 @@
         <v>-8.5714285714285701E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>76</v>
       </c>
@@ -7551,7 +7552,7 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>106</v>
       </c>
@@ -7570,7 +7571,7 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>48</v>
       </c>
@@ -7581,7 +7582,7 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>81</v>
       </c>
@@ -7592,7 +7593,7 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>92</v>
       </c>
@@ -7603,7 +7604,7 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>53</v>
       </c>
@@ -7614,7 +7615,7 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>36</v>
       </c>
@@ -7625,7 +7626,7 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>45</v>
       </c>
@@ -7648,7 +7649,7 @@
         <v>0.68880261019588995</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>61</v>
       </c>
@@ -7659,7 +7660,7 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>93</v>
       </c>
@@ -7670,7 +7671,7 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>35</v>
       </c>
@@ -7693,7 +7694,7 @@
         <v>0.91624805020828803</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>67</v>
       </c>
@@ -7712,7 +7713,7 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>94</v>
       </c>
@@ -7735,7 +7736,7 @@
         <v>0.77459666924148296</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>107</v>
       </c>
@@ -7754,7 +7755,7 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>33</v>
       </c>
@@ -7777,7 +7778,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>109</v>
       </c>
@@ -7800,7 +7801,7 @@
         <v>0.40559583899476098</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>83</v>
       </c>
@@ -7823,7 +7824,7 @@
         <v>0.53500707182745699</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>15</v>
       </c>
@@ -7842,7 +7843,7 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>60</v>
       </c>
@@ -7853,7 +7854,7 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>79</v>
       </c>
@@ -7864,7 +7865,7 @@
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>108</v>
       </c>
@@ -7887,7 +7888,7 @@
         <v>0.30511416061917002</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>50</v>
       </c>
@@ -7898,7 +7899,7 @@
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>39</v>
       </c>
@@ -7921,7 +7922,7 @@
         <v>0.28947368421052599</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>80</v>
       </c>
@@ -7944,7 +7945,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>91</v>
       </c>
@@ -7963,7 +7964,7 @@
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>18</v>
       </c>
@@ -7974,7 +7975,7 @@
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>37</v>
       </c>
@@ -7993,7 +7994,7 @@
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>5</v>
       </c>
@@ -8016,7 +8017,7 @@
         <v>0.337746375978561</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>1</v>
       </c>
@@ -8039,7 +8040,7 @@
         <v>0.78800904807441596</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>8</v>
       </c>
@@ -8050,7 +8051,7 @@
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>43</v>
       </c>
@@ -8061,7 +8062,7 @@
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>2</v>
       </c>
@@ -8072,7 +8073,7 @@
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>100</v>
       </c>
@@ -8095,7 +8096,7 @@
         <v>0.58232513607310799</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>89</v>
       </c>
@@ -8118,7 +8119,7 @@
         <v>0.520754987490466</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>86</v>
       </c>
@@ -8129,7 +8130,7 @@
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>102</v>
       </c>
@@ -8140,7 +8141,7 @@
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>103</v>
       </c>
@@ -8163,7 +8164,7 @@
         <v>0.999999999999999</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>54</v>
       </c>
@@ -8186,7 +8187,7 @@
         <v>0.140409887900139</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>22</v>
       </c>
@@ -8197,7 +8198,7 @@
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>19</v>
       </c>
@@ -8208,7 +8209,7 @@
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>30</v>
       </c>
@@ -8219,7 +8220,7 @@
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>42</v>
       </c>
@@ -8242,7 +8243,7 @@
         <v>0.28433129005534402</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>64</v>
       </c>
@@ -8253,7 +8254,7 @@
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>51</v>
       </c>
@@ -8276,7 +8277,7 @@
         <v>0.32939664217265102</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>56</v>
       </c>
@@ -8295,7 +8296,7 @@
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>12</v>
       </c>
@@ -8318,7 +8319,7 @@
         <v>0.38095238095238099</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>3</v>
       </c>
@@ -8341,7 +8342,7 @@
         <v>-0.999999999999999</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>82</v>
       </c>
@@ -8352,7 +8353,7 @@
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>38</v>
       </c>
@@ -8363,7 +8364,7 @@
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>77</v>
       </c>
@@ -8386,7 +8387,7 @@
         <v>0.285073383277125</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>14</v>
       </c>
@@ -8397,7 +8398,7 @@
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>17</v>
       </c>
@@ -8408,7 +8409,7 @@
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>34</v>
       </c>
@@ -8431,7 +8432,7 @@
         <v>0.33807123694609398</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>66</v>
       </c>
@@ -8442,7 +8443,7 @@
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>95</v>
       </c>
@@ -8461,7 +8462,7 @@
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>57</v>
       </c>
@@ -8484,7 +8485,7 @@
         <v>0.67290773513678803</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>73</v>
       </c>
@@ -8495,7 +8496,7 @@
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>46</v>
       </c>
@@ -8506,7 +8507,7 @@
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>23</v>
       </c>
@@ -8529,7 +8530,7 @@
         <v>0.59743546752919996</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>84</v>
       </c>
@@ -8552,7 +8553,7 @@
         <v>0.48560830233602298</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>10</v>
       </c>
@@ -8563,7 +8564,7 @@
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>25</v>
       </c>
@@ -8586,7 +8587,7 @@
         <v>0.77459666924148296</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>68</v>
       </c>
@@ -8605,7 +8606,7 @@
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>69</v>
       </c>
@@ -8628,7 +8629,7 @@
         <v>0.69230769230769196</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>26</v>
       </c>
@@ -8639,7 +8640,7 @@
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>72</v>
       </c>
@@ -8650,7 +8651,7 @@
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>62</v>
       </c>
@@ -8661,7 +8662,7 @@
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>97</v>
       </c>
@@ -8672,7 +8673,7 @@
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>74</v>
       </c>
@@ -8683,7 +8684,7 @@
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>65</v>
       </c>
@@ -8694,7 +8695,7 @@
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>55</v>
       </c>
@@ -8717,7 +8718,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>85</v>
       </c>
@@ -8740,7 +8741,7 @@
         <v>0.68474576271186405</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>44</v>
       </c>
@@ -8763,7 +8764,7 @@
         <v>0.75000734210796804</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>58</v>
       </c>
@@ -8782,7 +8783,7 @@
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>4</v>
       </c>
@@ -8793,7 +8794,7 @@
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>75</v>
       </c>
@@ -8804,7 +8805,7 @@
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>70</v>
       </c>
@@ -8827,7 +8828,7 @@
         <v>0.999999999999999</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>41</v>
       </c>
@@ -8838,7 +8839,7 @@
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>101</v>
       </c>
@@ -8849,7 +8850,7 @@
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>104</v>
       </c>
@@ -8868,7 +8869,7 @@
       <c r="F88" s="1"/>
       <c r="G88" s="1"/>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>28</v>
       </c>
@@ -8879,7 +8880,7 @@
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>20</v>
       </c>
@@ -8902,7 +8903,7 @@
         <v>0.999999999999999</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>27</v>
       </c>
@@ -8913,7 +8914,7 @@
       <c r="F91" s="1"/>
       <c r="G91" s="1"/>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>47</v>
       </c>
@@ -8924,7 +8925,7 @@
       <c r="F92" s="1"/>
       <c r="G92" s="1"/>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>40</v>
       </c>
@@ -8947,7 +8948,7 @@
         <v>0.94285714285714295</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>98</v>
       </c>
@@ -8958,7 +8959,7 @@
       <c r="F94" s="1"/>
       <c r="G94" s="1"/>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>59</v>
       </c>
@@ -8969,7 +8970,7 @@
       <c r="F95" s="1"/>
       <c r="G95" s="1"/>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>7</v>
       </c>
@@ -8992,7 +8993,7 @@
         <v>0.43946210223454402</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>99</v>
       </c>
@@ -9003,7 +9004,7 @@
       <c r="F97" s="1"/>
       <c r="G97" s="1"/>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>90</v>
       </c>
@@ -9026,7 +9027,7 @@
         <v>0.37257061544240699</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>31</v>
       </c>
@@ -9037,7 +9038,7 @@
       <c r="F99" s="1"/>
       <c r="G99" s="1"/>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>29</v>
       </c>
@@ -9060,7 +9061,7 @@
         <v>0.77025574633191096</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>6</v>
       </c>
@@ -9071,7 +9072,7 @@
       <c r="F101" s="1"/>
       <c r="G101" s="1"/>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>52</v>
       </c>
@@ -9090,7 +9091,7 @@
       <c r="F102" s="1"/>
       <c r="G102" s="1"/>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>71</v>
       </c>
@@ -9113,7 +9114,7 @@
         <v>0.36546086498504299</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>32</v>
       </c>
@@ -9136,7 +9137,7 @@
         <v>-0.86602540378443804</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>49</v>
       </c>
@@ -9147,7 +9148,7 @@
       <c r="F105" s="1"/>
       <c r="G105" s="1"/>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>88</v>
       </c>
@@ -9170,7 +9171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>9</v>
       </c>
@@ -9189,7 +9190,7 @@
       <c r="F107" s="1"/>
       <c r="G107" s="1"/>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>120</v>
       </c>
@@ -9212,7 +9213,7 @@
         <v>7.1428571428571397E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>13</v>
       </c>
@@ -9223,7 +9224,7 @@
       <c r="F109" s="1"/>
       <c r="G109" s="1"/>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>78</v>
       </c>
@@ -9246,7 +9247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>16</v>
       </c>
@@ -9269,7 +9270,7 @@
         <v>0.45661046170543201</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>11</v>
       </c>
@@ -9292,7 +9293,7 @@
         <v>0.999999999999999</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>87</v>
       </c>
@@ -9303,7 +9304,7 @@
       <c r="F113" s="1"/>
       <c r="G113" s="1"/>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>21</v>
       </c>
